--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\101\DesignLab\DesignLab-BabaJaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B79EBBD-DBF8-44C5-8360-6047DFDB835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF789E08-8A5E-4442-8278-501971B3E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42D2EFB3-674E-49B3-9F29-6D82DC6BEF89}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42D2EFB3-674E-49B3-9F29-6D82DC6BEF89}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>I</t>
   </si>
@@ -72,6 +72,114 @@
   </si>
   <si>
     <t>Task name</t>
+  </si>
+  <si>
+    <t>Project PoC</t>
+  </si>
+  <si>
+    <t>Create GIT Repository</t>
+  </si>
+  <si>
+    <t>Design PCB for Game Module</t>
+  </si>
+  <si>
+    <t>Describe Game rules</t>
+  </si>
+  <si>
+    <t>Choose hardware elements &amp; collect datasheets</t>
+  </si>
+  <si>
+    <t>Design software architecture for control module</t>
+  </si>
+  <si>
+    <t>Design software architecture for game module</t>
+  </si>
+  <si>
+    <t>Create Prototype hardware set for game module on breadboard</t>
+  </si>
+  <si>
+    <t>Create Prototype hardware set for control module on breadboard</t>
+  </si>
+  <si>
+    <t>Integrate software modules</t>
+  </si>
+  <si>
+    <t>Integrate prototype electronic systems</t>
+  </si>
+  <si>
+    <t>Movement detection - PoC &amp; write simple program to test functionality</t>
+  </si>
+  <si>
+    <t>Learn Altiume</t>
+  </si>
+  <si>
+    <t>Configure IDE &amp; programming setup</t>
+  </si>
+  <si>
+    <t>NucleoL432KC microcontroller onboarding</t>
+  </si>
+  <si>
+    <t>Implement EXTI for PIR signal PoC</t>
+  </si>
+  <si>
+    <t>Create basic algorithm for 2-side movement detection</t>
+  </si>
+  <si>
+    <t>Control Module interface PoC</t>
+  </si>
+  <si>
+    <t>STM32CubeIDE onboarding</t>
+  </si>
+  <si>
+    <t>Introduce common configuration interface for Game and Control modules via Bluetooth</t>
+  </si>
+  <si>
+    <t>Implement bluetooth receiving mechanism using UART for Game module</t>
+  </si>
+  <si>
+    <t>Prepare set of messages to control Game logic</t>
+  </si>
+  <si>
+    <t>Document messages types and definitions which controls flow of the game</t>
+  </si>
+  <si>
+    <t>Prepare block diagram for Control module</t>
+  </si>
+  <si>
+    <t>Prepare block diagram for Game module</t>
+  </si>
+  <si>
+    <t>Create mobile app to substitute hardware based Control module</t>
+  </si>
+  <si>
+    <t>Add missed button functionality to Game module</t>
+  </si>
+  <si>
+    <t>Task owners</t>
+  </si>
+  <si>
+    <t>Paweł Tymoczko</t>
+  </si>
+  <si>
+    <t>Mariusz Furtek</t>
+  </si>
+  <si>
+    <t>Mariusz Furtek, Paweł Kierzek, Paweł Tymoczko</t>
+  </si>
+  <si>
+    <t>Mariusz Furtek, Paweł Kierzek</t>
+  </si>
+  <si>
+    <t>Prepare workspace in trello</t>
+  </si>
+  <si>
+    <t>Paweł Kierzek, Paweł Tymoczko</t>
+  </si>
+  <si>
+    <t>Create project's final report</t>
+  </si>
+  <si>
+    <t>Update datasheets and cleen repository</t>
   </si>
 </sst>
 </file>
@@ -88,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -162,29 +282,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -499,493 +690,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C113CAC-61D0-4280-B66D-79ACC4FF58AE}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="4"/>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:B21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="23">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C33"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
